--- a/实验5：软件测试评审/他组对本组评审/初评审/对I组_测试需求说明书评审反馈.xlsx
+++ b/实验5：软件测试评审/他组对本组评审/初评审/对I组_测试需求说明书评审反馈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验5：软件测试评审/他组对本组评审/初评审/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072AB38-C799-7A4D-A2DD-1EA37F8E3C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50544B-567D-6C4A-922E-B3FFCAEA2B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="26220" windowHeight="17040" xr2:uid="{F0A810CF-7725-8E42-97D4-4A68003178B9}"/>
+    <workbookView xWindow="14200" yWindow="1280" windowWidth="14600" windowHeight="15660" xr2:uid="{F0A810CF-7725-8E42-97D4-4A68003178B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,55 @@
     <t>修改措辞</t>
   </si>
   <si>
-    <r>
+    <t>添加相应主语</t>
+  </si>
+  <si>
+    <r>
+      <t>3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3</t>
+    </r>
+  </si>
+  <si>
+    <t>缺少测试需求与需求的对照说明</t>
+  </si>
+  <si>
+    <t>完整性</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>建议增加测试需求与需求规格说明书中需求的对应说明</t>
+  </si>
+  <si>
+    <r>
+      <t>测试用例说明表最后一栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -209,108 +257,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>使得针对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Gitea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的通知功能模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>……</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使得通知模块扩展后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>……”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有主语</t>
-    </r>
-  </si>
-  <si>
-    <t>添加相应主语</t>
-  </si>
-  <si>
-    <r>
-      <t>3.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.3</t>
-    </r>
-  </si>
-  <si>
-    <t>缺少测试需求与需求的对照说明</t>
-  </si>
-  <si>
-    <t>完整性</t>
-  </si>
-  <si>
-    <t>中等</t>
-  </si>
-  <si>
-    <t>建议增加测试需求与需求规格说明书中需求的对应说明</t>
-  </si>
-  <si>
-    <r>
-      <t>测试用例说明表最后一栏</t>
+      <t>测试说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，每一项结尾是否有标点不统一</t>
+    </r>
+  </si>
+  <si>
+    <t>统一格式</t>
+  </si>
+  <si>
+    <t>TestCase008</t>
+  </si>
+  <si>
+    <r>
+      <t>删除后面的</t>
     </r>
     <r>
       <rPr>
@@ -329,6 +306,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试说明</t>
     </r>
     <r>
@@ -348,17 +359,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中，每一项结尾是否有标点不统一</t>
-    </r>
-  </si>
-  <si>
-    <t>统一格式</t>
-  </si>
-  <si>
-    <t>TestCase008</t>
-  </si>
-  <si>
-    <r>
+      <t>一项好像没有写完</t>
+    </r>
+  </si>
+  <si>
+    <t>补全用例测试说明内容</t>
+  </si>
+  <si>
+    <t>一致性</t>
+  </si>
+  <si>
+    <t>统一命名或增加相关内容</t>
+  </si>
+  <si>
+    <t>增加对这几个模块的功能测试</t>
+  </si>
+  <si>
+    <t>TestCase009</t>
+  </si>
+  <si>
+    <t>TestCase010</t>
+  </si>
+  <si>
+    <r>
+      <t>这两个用例中主要测试模块一项对应的内容在原框架组件功能模块功能性需求中没有找到，是否是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -369,6 +401,83 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>通知消息模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的子模块？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果是，建议在原框架组件功能模块功能性需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通知消息模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下写明；如果不是建议补充原框架组件功能模块功能性需求</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>主要测试模块</t>
     </r>
     <r>
@@ -397,17 +506,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动态加载模块模块</t>
+      <t>“Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息通知</t>
     </r>
     <r>
       <rPr>
@@ -426,31 +535,31 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，表述是否有问题？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>删除后面的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
+      <t>，表述与前一个用例不一致</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>更改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消息通知模块</t>
     </r>
     <r>
       <rPr>
@@ -461,297 +570,11 @@
       </rPr>
       <t>”</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二字</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一项好像没有写完</t>
-    </r>
-  </si>
-  <si>
-    <t>补全用例测试说明内容</t>
-  </si>
-  <si>
-    <t>一致性</t>
-  </si>
-  <si>
-    <t>统一命名或增加相关内容</t>
-  </si>
-  <si>
-    <t>增加对这几个模块的功能测试</t>
-  </si>
-  <si>
-    <t>TestCase009</t>
-  </si>
-  <si>
-    <t>TestCase010</t>
-  </si>
-  <si>
-    <r>
-      <t>这两个用例中主要测试模块一项对应的内容在原框架组件功能模块功能性需求中没有找到，是否是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通知消息模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的子模块？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>如果是，建议在原框架组件功能模块功能性需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通知消息模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下写明；如果不是建议补充原框架组件功能模块功能性需求</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主要测试模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一项为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，表述与前一个用例不一致</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>更改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消息通知模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
   </si>
   <si>
     <t>TestCase011</t>
   </si>
   <si>
-    <r>
-      <t>在拓展模块功能性测试需求中没有提到有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微信通知服务模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-  </si>
-  <si>
     <t>建议补全内容</t>
   </si>
   <si>
@@ -761,88 +584,10 @@
     <t>统一命名</t>
   </si>
   <si>
-    <t>该项是否应该是模块功能测试而非场景测试？</t>
-  </si>
-  <si>
     <t>改为模块功能测试</t>
   </si>
   <si>
     <t>TestCase013</t>
-  </si>
-  <si>
-    <r>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主要测试模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中提到了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“gRPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动态加载模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，但在拓展模块功能性测试需求中没有提到该模块</t>
-    </r>
-  </si>
-  <si>
-    <t>测试需求规格说明书中存在实际测试结果</t>
   </si>
   <si>
     <t>测试需求规格说明书中不应有实际测试结果，建议将这部分内容重新整理至测试报告中</t>
@@ -1504,6 +1249,267 @@
 2.通知服务客户端接口模块，补充TestCase13说明
 3.通知模块加载模块，修改TestCase9、TestCase21的对应模块说明
 4.数据库服务模块，这个TestCase12、TestCase13原本就有了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要测试模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一项为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态加载模块模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，表述是否有问题？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使得针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gitea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的通知功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使得通知模块扩展后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>……”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有主语</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在拓展模块功能性测试需求中没有提到有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信通知服务模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>该项是否应该是模块功能测试而非场景测试？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要测试模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中提到了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“gRPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态加载模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但在拓展模块功能性测试需求中没有提到该模块</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试需求规格说明书中存在实际测试结果</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1669,6 +1675,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1678,20 +1693,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0803EA5F-F524-3841-A043-AE6F885BD724}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2023,16 +2029,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23">
-      <c r="A1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -2057,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -2083,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
@@ -2109,7 +2115,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90">
@@ -2135,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
@@ -2146,7 +2152,7 @@
         <v>2.1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -2158,47 +2164,47 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>78</v>
+      <c r="H7" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="61" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="45">
       <c r="A9" s="3">
@@ -2208,7 +2214,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -2220,125 +2226,125 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>80</v>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="53" customHeight="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>81</v>
+      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="55" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="67" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>83</v>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="182" customHeight="1">
       <c r="A16" s="3">
@@ -2348,263 +2354,263 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
       <c r="B17" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>85</v>
+      <c r="G17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="95" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>12</v>
       </c>
       <c r="B20" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>75</v>
+      <c r="G20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="121" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>13</v>
       </c>
       <c r="B22" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>75</v>
+      <c r="G22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="93" customHeight="1">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="67" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>14</v>
       </c>
       <c r="B24" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>89</v>
+      <c r="G24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="67" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>15</v>
       </c>
       <c r="B26" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>86</v>
+      <c r="G26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="137" customHeight="1">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>16</v>
       </c>
       <c r="B28" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>87</v>
+      <c r="G28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="72" customHeight="1">
       <c r="A30" s="3">
@@ -2614,7 +2620,7 @@
         <v>4.2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -2623,13 +2629,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45">
@@ -2640,22 +2646,22 @@
         <v>4.2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="109" customHeight="1">
@@ -2663,10 +2669,10 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -2678,238 +2684,198 @@
         <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31" customHeight="1">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>20</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>93</v>
+      <c r="F33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="63" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" ht="33" customHeight="1">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>21</v>
       </c>
       <c r="B35" s="3">
         <v>4.2</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>94</v>
+      <c r="G35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="151" customHeight="1">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>4.2</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>96</v>
+      <c r="G37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="75">
-      <c r="A38" s="12"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="45" customHeight="1">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>23</v>
       </c>
       <c r="B39" s="3">
         <v>4.2</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>23</v>
+      <c r="E39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="46">
-      <c r="A40" s="12"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" ht="46">
-      <c r="A41" s="12"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C37:C38"/>
@@ -2925,31 +2891,71 @@
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
